--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/A2m-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/A2m-Lrp1.xlsx
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>23.63579766666667</v>
+        <v>1.918906333333333</v>
       </c>
       <c r="N2">
-        <v>70.907393</v>
+        <v>5.756718999999999</v>
       </c>
       <c r="O2">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="P2">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="Q2">
-        <v>1.540864921485333</v>
+        <v>0.1250973416826666</v>
       </c>
       <c r="R2">
-        <v>13.867784293368</v>
+        <v>1.125876075144</v>
       </c>
       <c r="S2">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
       <c r="T2">
-        <v>0.06827844587621175</v>
+        <v>0.006524019162508824</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -623,10 +623,10 @@
         <v>543.865174</v>
       </c>
       <c r="O3">
-        <v>0.5237009467675041</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="P3">
-        <v>0.523700946767504</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="Q3">
         <v>11.81855280780267</v>
@@ -635,10 +635,10 @@
         <v>106.366975270224</v>
       </c>
       <c r="S3">
-        <v>0.5237009467675041</v>
+        <v>0.6163557430885885</v>
       </c>
       <c r="T3">
-        <v>0.523700946767504</v>
+        <v>0.6163557430885885</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>30.14303933333333</v>
+        <v>29.04767233333333</v>
       </c>
       <c r="N4">
-        <v>90.42911799999999</v>
+        <v>87.143017</v>
       </c>
       <c r="O4">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384234</v>
       </c>
       <c r="P4">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384236</v>
       </c>
       <c r="Q4">
-        <v>1.965085020218666</v>
+        <v>1.893675854754667</v>
       </c>
       <c r="R4">
-        <v>17.685765181968</v>
+        <v>17.043082692792</v>
       </c>
       <c r="S4">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384234</v>
       </c>
       <c r="T4">
-        <v>0.08707638763417187</v>
+        <v>0.09875811426384236</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>111.1005463333333</v>
+        <v>81.87450533333333</v>
       </c>
       <c r="N5">
-        <v>333.301639</v>
+        <v>245.623516</v>
       </c>
       <c r="O5">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="P5">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="Q5">
-        <v>7.242866816562667</v>
+        <v>5.337562751690666</v>
       </c>
       <c r="R5">
-        <v>65.18580134906399</v>
+        <v>48.038064765216</v>
       </c>
       <c r="S5">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
       <c r="T5">
-        <v>0.3209442197221123</v>
+        <v>0.2783621234850603</v>
       </c>
     </row>
   </sheetData>
